--- a/movies_dataset.xlsx
+++ b/movies_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/549b231134dbcf65/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF16AB7C-1183-478E-B6A6-5D3D05894BDF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,9 +520,6 @@
     <t>Varane Avashyamund</t>
   </si>
   <si>
-    <t>poster/varane_avashyamund.jpg</t>
-  </si>
-  <si>
     <t>Neena, a french tutor and single mother, lives with her daughter who is trying to find a groom for herself. Soon, their lives change when a retired army major and a young man move into their building.</t>
   </si>
   <si>
@@ -635,9 +632,6 @@
   </si>
   <si>
     <t>Bramayugam</t>
-  </si>
-  <si>
-    <t>poster/bramayugam.jpg</t>
   </si>
   <si>
     <t>A folklore singer from the Paanan caste loses his way after narrowly escaping a slave market. He stumbles upon a mysterious tradition that changes his destiny.</t>
@@ -1085,9 +1079,6 @@
     <t>Super Sharanya</t>
   </si>
   <si>
-    <t>poster/super_sharanya.jpg</t>
-  </si>
-  <si>
     <t>Sharanya experiences her first love, makes new friends and enjoys her college days as she walks on the tricky path towards adulthood.</t>
   </si>
   <si>
@@ -1160,9 +1151,6 @@
     <t>Mikhael</t>
   </si>
   <si>
-    <t>poster/mikhael.jpg</t>
-  </si>
-  <si>
     <t>A businessman tries to make a young lady commit suicide in order to avenge his son's death. However, the woman's brother, a doctor, saves her and vows to eliminate those who come after his family.</t>
   </si>
   <si>
@@ -1724,9 +1712,6 @@
     <t>Bhoot Part One : The Haunted Ship</t>
   </si>
   <si>
-    <t>poster/_bhoot_part_one.jpg</t>
-  </si>
-  <si>
     <t>Prithvi, a shipping officer, is assigned to investigate the Sea Bird, a supposedly haunted ship. However, he soon realises that the ship holds darker secrets which threaten his life.</t>
   </si>
   <si>
@@ -1890,6 +1875,21 @@
   </si>
   <si>
     <t>To marry his love, Karam, a middle-class boy, disguises himself as Pooja and becomes a dancer at a bar to earn money quickly. However, his cross-dressing soon lands him a complicated mess.</t>
+  </si>
+  <si>
+    <t>poster/mikhaell.jpg</t>
+  </si>
+  <si>
+    <t>poster/bhoot_part_one.jpg</t>
+  </si>
+  <si>
+    <t>poster/varane_aavishyamund.jpg</t>
+  </si>
+  <si>
+    <t>poster/Brahmayugam.jpg</t>
+  </si>
+  <si>
+    <t>poster/super_sharanya.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2045,6 +2045,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3611,10 +3615,10 @@
         <v>6.9</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -3623,7 +3627,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3">
         <v>2020</v>
@@ -3638,10 +3642,10 @@
         <v>5.5</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="3">
         <v>2023</v>
@@ -3665,10 +3669,10 @@
         <v>6.3</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -3677,7 +3681,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="3">
         <v>2024</v>
@@ -3692,10 +3696,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -3704,7 +3708,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="3">
         <v>2023</v>
@@ -3719,10 +3723,10 @@
         <v>7.5</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -3731,7 +3735,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="3">
         <v>2024</v>
@@ -3746,10 +3750,10 @@
         <v>8.6</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -3758,7 +3762,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="3">
         <v>2024</v>
@@ -3773,10 +3777,10 @@
         <v>7.2</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -3785,7 +3789,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3">
         <v>2024</v>
@@ -3800,10 +3804,10 @@
         <v>8</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3812,7 +3816,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3">
         <v>2024</v>
@@ -3827,10 +3831,10 @@
         <v>7.8</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3839,7 +3843,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="3">
         <v>2024</v>
@@ -3854,10 +3858,10 @@
         <v>7.8</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -3866,7 +3870,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="3">
         <v>2019</v>
@@ -3881,10 +3885,10 @@
         <v>8.5</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -3893,7 +3897,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="3">
         <v>2015</v>
@@ -3908,10 +3912,10 @@
         <v>6.7</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="I61" s="6"/>
     </row>
@@ -3920,7 +3924,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="3">
         <v>2007</v>
@@ -3935,10 +3939,10 @@
         <v>7.5</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="I62" s="6"/>
     </row>
@@ -3947,7 +3951,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" s="3">
         <v>2024</v>
@@ -3962,10 +3966,10 @@
         <v>8.5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>200</v>
+        <v>616</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I63" s="6"/>
     </row>
@@ -3974,7 +3978,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C64" s="3">
         <v>2024</v>
@@ -3989,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I64" s="6"/>
     </row>
@@ -4001,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" s="3">
         <v>2021</v>
@@ -4016,10 +4020,10 @@
         <v>6.1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I65" s="6"/>
     </row>
@@ -4028,7 +4032,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" s="3">
         <v>2023</v>
@@ -4043,10 +4047,10 @@
         <v>8.1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I66" s="6"/>
     </row>
@@ -4055,7 +4059,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C67" s="3">
         <v>2015</v>
@@ -4070,10 +4074,10 @@
         <v>6.5</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I67" s="6"/>
     </row>
@@ -4082,7 +4086,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C68" s="3">
         <v>2016</v>
@@ -4097,10 +4101,10 @@
         <v>7.3</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="9"/>
@@ -4110,7 +4114,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C69" s="3">
         <v>2018</v>
@@ -4125,10 +4129,10 @@
         <v>7.3</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I69" s="7"/>
     </row>
@@ -4137,7 +4141,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="3">
         <v>2019</v>
@@ -4152,10 +4156,10 @@
         <v>7.1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I70" s="7"/>
     </row>
@@ -4164,7 +4168,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="3">
         <v>2020</v>
@@ -4179,10 +4183,10 @@
         <v>7.1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I71" s="7"/>
     </row>
@@ -4191,7 +4195,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" s="3">
         <v>2022</v>
@@ -4206,10 +4210,10 @@
         <v>6.5</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I72" s="7"/>
     </row>
@@ -4218,7 +4222,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C73" s="3">
         <v>2021</v>
@@ -4233,10 +4237,10 @@
         <v>6.3</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I73" s="7"/>
     </row>
@@ -4245,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C74" s="3">
         <v>2024</v>
@@ -4260,10 +4264,10 @@
         <v>6.8</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I74" s="7"/>
     </row>
@@ -4272,7 +4276,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C75" s="3">
         <v>2016</v>
@@ -4287,10 +4291,10 @@
         <v>6.3</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I75" s="7"/>
     </row>
@@ -4299,7 +4303,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C76" s="3">
         <v>2014</v>
@@ -4314,10 +4318,10 @@
         <v>8.1</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I76" s="7"/>
     </row>
@@ -4326,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C77" s="3">
         <v>2015</v>
@@ -4341,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I77" s="7"/>
     </row>
@@ -4353,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" s="3">
         <v>2016</v>
@@ -4368,10 +4372,10 @@
         <v>8</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I78" s="7"/>
     </row>
@@ -4380,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C79" s="3">
         <v>2017</v>
@@ -4395,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I79" s="7"/>
     </row>
@@ -4407,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C80" s="3">
         <v>2018</v>
@@ -4422,10 +4426,10 @@
         <v>6.9</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I80" s="7"/>
     </row>
@@ -4434,7 +4438,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C81" s="3">
         <v>2019</v>
@@ -4449,10 +4453,10 @@
         <v>7.9</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I81" s="7"/>
     </row>
@@ -4461,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="3">
         <v>2020</v>
@@ -4476,10 +4480,10 @@
         <v>7.4</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I82" s="7"/>
     </row>
@@ -4488,7 +4492,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C83" s="3">
         <v>2021</v>
@@ -4503,10 +4507,10 @@
         <v>7.1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I83" s="7"/>
     </row>
@@ -4515,7 +4519,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C84" s="3">
         <v>2021</v>
@@ -4530,10 +4534,10 @@
         <v>5.8</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I84" s="7"/>
     </row>
@@ -4542,7 +4546,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C85" s="3">
         <v>2023</v>
@@ -4557,10 +4561,10 @@
         <v>6.8</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I85" s="7"/>
     </row>
@@ -4569,7 +4573,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C86" s="3">
         <v>2024</v>
@@ -4584,10 +4588,10 @@
         <v>6.9</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I86" s="7"/>
     </row>
@@ -4596,7 +4600,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C87" s="3">
         <v>2014</v>
@@ -4611,10 +4615,10 @@
         <v>7.9</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I87" s="7"/>
     </row>
@@ -4623,7 +4627,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C88" s="3">
         <v>2015</v>
@@ -4638,10 +4642,10 @@
         <v>8.1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I88" s="7"/>
     </row>
@@ -4650,7 +4654,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C89" s="3">
         <v>2016</v>
@@ -4665,10 +4669,10 @@
         <v>7.8</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I89" s="7"/>
     </row>
@@ -4677,7 +4681,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C90" s="3">
         <v>2018</v>
@@ -4692,10 +4696,10 @@
         <v>7.7</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I90" s="7"/>
     </row>
@@ -4704,7 +4708,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C91" s="3">
         <v>2019</v>
@@ -4719,10 +4723,10 @@
         <v>8.4</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I91" s="7"/>
     </row>
@@ -4731,7 +4735,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C92" s="3">
         <v>2021</v>
@@ -4746,10 +4750,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I92" s="7"/>
     </row>
@@ -4758,7 +4762,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C93" s="3">
         <v>2022</v>
@@ -4773,10 +4777,10 @@
         <v>7.8</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I93" s="7"/>
     </row>
@@ -4785,7 +4789,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C94" s="3">
         <v>2023</v>
@@ -4800,10 +4804,10 @@
         <v>7.9</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I94" s="7"/>
     </row>
@@ -4812,7 +4816,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C95" s="3">
         <v>2014</v>
@@ -4827,10 +4831,10 @@
         <v>7.7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I95" s="7"/>
     </row>
@@ -4839,7 +4843,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3">
         <v>2015</v>
@@ -4854,10 +4858,10 @@
         <v>7.5</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I96" s="7"/>
     </row>
@@ -4866,7 +4870,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C97" s="3">
         <v>2016</v>
@@ -4881,10 +4885,10 @@
         <v>7.4</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I97" s="7"/>
     </row>
@@ -4893,7 +4897,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C98" s="3">
         <v>2017</v>
@@ -4908,10 +4912,10 @@
         <v>7.5</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I98" s="7"/>
     </row>
@@ -4920,7 +4924,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C99" s="3">
         <v>2018</v>
@@ -4935,10 +4939,10 @@
         <v>7.6</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I99" s="7"/>
     </row>
@@ -4947,7 +4951,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C100" s="3">
         <v>2020</v>
@@ -4962,10 +4966,10 @@
         <v>6.9</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I100" s="7"/>
     </row>
@@ -4974,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C101" s="3">
         <v>2021</v>
@@ -4989,10 +4993,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I101" s="7"/>
     </row>
@@ -5001,7 +5005,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C102" s="3">
         <v>2022</v>
@@ -5016,10 +5020,10 @@
         <v>5.8</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I102" s="7"/>
     </row>
@@ -5028,7 +5032,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C103" s="3">
         <v>2024</v>
@@ -5043,10 +5047,10 @@
         <v>6.3</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I103" s="7"/>
     </row>
@@ -5055,25 +5059,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C104" s="3">
         <v>2014</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F104" s="3">
         <v>7.7</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I104" s="7"/>
     </row>
@@ -5082,25 +5086,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C105" s="3">
         <v>2015</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F105" s="3">
         <v>6.6</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I105" s="7"/>
     </row>
@@ -5109,13 +5113,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C106" s="3">
         <v>2016</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>49</v>
@@ -5124,10 +5128,10 @@
         <v>6.7</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I106" s="7"/>
       <c r="K106" s="3"/>
@@ -5137,25 +5141,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C107" s="3">
         <v>2017</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F107" s="3">
         <v>7.1</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I107" s="7"/>
     </row>
@@ -5164,25 +5168,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C108" s="3">
         <v>2018</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F108" s="3">
         <v>6.8</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I108" s="7"/>
     </row>
@@ -5191,25 +5195,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C109" s="3">
         <v>2019</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F109" s="3">
         <v>6.7</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I109" s="7"/>
     </row>
@@ -5218,25 +5222,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C110" s="3">
         <v>2020</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F110" s="3">
         <v>7.5</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I110" s="7"/>
     </row>
@@ -5245,25 +5249,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C111" s="3">
         <v>2021</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F111" s="3">
         <v>7.6</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I111" s="7"/>
     </row>
@@ -5272,25 +5276,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C112" s="3">
         <v>2022</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F112" s="3">
         <v>6.4</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>349</v>
+        <v>617</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I112" s="7"/>
     </row>
@@ -5299,25 +5303,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C113" s="3">
         <v>2023</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F113" s="3">
         <v>6.8</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I113" s="7"/>
     </row>
@@ -5326,25 +5330,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C114" s="3">
         <v>2024</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F114" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I114" s="7"/>
     </row>
@@ -5353,25 +5357,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C115" s="3">
         <v>2014</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F115" s="3">
         <v>3.4</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I115" s="7"/>
     </row>
@@ -5380,25 +5384,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C116" s="3">
         <v>2015</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F116" s="3">
         <v>3.3</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I116" s="7"/>
     </row>
@@ -5407,13 +5411,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C117" s="3">
         <v>2016</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>14</v>
@@ -5422,10 +5426,10 @@
         <v>8</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I117" s="7"/>
     </row>
@@ -5434,13 +5438,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C118" s="3">
         <v>2017</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>14</v>
@@ -5449,10 +5453,10 @@
         <v>7.9</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I118" s="7"/>
     </row>
@@ -5461,13 +5465,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C119" s="3">
         <v>2018</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>14</v>
@@ -5476,10 +5480,10 @@
         <v>6.7</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I119" s="7"/>
     </row>
@@ -5488,25 +5492,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C120" s="3">
         <v>2019</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F120" s="3">
         <v>5</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>374</v>
+        <v>613</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I120" s="7"/>
     </row>
@@ -5515,25 +5519,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C121" s="3">
         <v>2020</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F121" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I121" s="7"/>
     </row>
@@ -5542,25 +5546,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C122" s="3">
         <v>2021</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F122" s="3">
         <v>5.2</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I122" s="7"/>
     </row>
@@ -5569,13 +5573,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C123" s="3">
         <v>2022</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>14</v>
@@ -5584,10 +5588,10 @@
         <v>7.3</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I123" s="7"/>
     </row>
@@ -5596,25 +5600,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C124" s="3">
         <v>2023</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F124" s="3">
         <v>6.3</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I124" s="7"/>
     </row>
@@ -5623,13 +5627,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C125" s="3">
         <v>2014</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>10</v>
@@ -5638,10 +5642,10 @@
         <v>6.9</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I125" s="7"/>
     </row>
@@ -5650,13 +5654,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C126" s="3">
         <v>2015</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>10</v>
@@ -5665,10 +5669,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I126" s="7"/>
     </row>
@@ -5677,25 +5681,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C127" s="3">
         <v>2016</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F127" s="3">
         <v>6.5</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I127" s="7"/>
     </row>
@@ -5704,25 +5708,25 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C128" s="3">
         <v>2017</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F128" s="3">
         <v>8.1</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -5731,25 +5735,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C129" s="3">
         <v>2018</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F129" s="3">
         <v>8</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I129" s="7"/>
     </row>
@@ -5758,25 +5762,25 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C130" s="3">
         <v>2019</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F130" s="3">
         <v>7.2</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I130" s="7"/>
     </row>
@@ -5785,25 +5789,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C131" s="3">
         <v>2020</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F131" s="3">
         <v>7.3</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I131" s="7"/>
     </row>
@@ -5812,25 +5816,25 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C132" s="3">
         <v>2021</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F132" s="3">
         <v>7.5</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I132" s="7"/>
     </row>
@@ -5839,25 +5843,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C133" s="3">
         <v>2022</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F133" s="3">
         <v>6.9</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I133" s="7"/>
     </row>
@@ -5866,25 +5870,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C134" s="3">
         <v>2023</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F134" s="3">
         <v>7.3</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I134" s="7"/>
     </row>
@@ -5893,25 +5897,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C135" s="3">
         <v>2024</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F135" s="3">
         <v>6.5</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I135" s="7"/>
     </row>
@@ -5920,25 +5924,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C136" s="3">
         <v>2014</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F136" s="3">
         <v>5.4</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I136" s="7"/>
     </row>
@@ -5947,25 +5951,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C137" s="3">
         <v>2015</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F137" s="3">
         <v>6.6</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I137" s="7"/>
     </row>
@@ -5974,25 +5978,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C138" s="3">
         <v>2016</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F138" s="3">
         <v>6.4</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I138" s="7"/>
     </row>
@@ -6001,25 +6005,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C139" s="3">
         <v>2017</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F139" s="3">
         <v>6.6</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I139" s="7"/>
     </row>
@@ -6028,25 +6032,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C140" s="3">
         <v>2018</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F140" s="3">
         <v>4.8</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I140" s="7"/>
     </row>
@@ -6061,19 +6065,19 @@
         <v>2019</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F141" s="3">
         <v>6.7</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I141" s="7"/>
     </row>
@@ -6082,25 +6086,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C142" s="3">
         <v>2021</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F142" s="3">
         <v>5.7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I142" s="7"/>
     </row>
@@ -6109,25 +6113,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C143" s="3">
         <v>2022</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F143" s="3">
         <v>6.4</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I143" s="7"/>
     </row>
@@ -6136,25 +6140,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C144" s="3">
         <v>2023</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F144" s="3">
         <v>6</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I144" s="7"/>
     </row>
@@ -6163,13 +6167,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C145" s="3">
         <v>2024</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>74</v>
@@ -6178,10 +6182,10 @@
         <v>5.7</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I145" s="7"/>
     </row>
@@ -6190,13 +6194,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C146" s="3">
         <v>2014</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>36</v>
@@ -6205,10 +6209,10 @@
         <v>3.1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I146" s="7"/>
     </row>
@@ -6217,25 +6221,25 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C147" s="3">
         <v>2015</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F147" s="3">
         <v>6.9</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I147" s="7"/>
     </row>
@@ -6244,13 +6248,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C148" s="3">
         <v>2016</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>36</v>
@@ -6259,10 +6263,10 @@
         <v>5.5</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I148" s="7"/>
     </row>
@@ -6271,13 +6275,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C149" s="3">
         <v>2017</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>36</v>
@@ -6286,10 +6290,10 @@
         <v>7.2</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I149" s="7"/>
     </row>
@@ -6298,25 +6302,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C150" s="3">
         <v>2018</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F150" s="3">
         <v>5.7</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I150" s="7"/>
     </row>
@@ -6325,25 +6329,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C151" s="3">
         <v>2019</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F151" s="3">
         <v>6.8</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I151" s="7"/>
     </row>
@@ -6352,25 +6356,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C152" s="3">
         <v>2020</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F152" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I152" s="7"/>
     </row>
@@ -6379,13 +6383,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C153" s="3">
         <v>2021</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>36</v>
@@ -6394,10 +6398,10 @@
         <v>6.5</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I153" s="7"/>
     </row>
@@ -6406,25 +6410,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C154" s="3">
         <v>2022</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F154" s="3">
         <v>5.7</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I154" s="7"/>
     </row>
@@ -6433,13 +6437,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C155" s="3">
         <v>2023</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>36</v>
@@ -6448,10 +6452,10 @@
         <v>7.3</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I155" s="7"/>
     </row>
@@ -6460,13 +6464,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C156" s="3">
         <v>2024</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>36</v>
@@ -6475,10 +6479,10 @@
         <v>5.6</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I156" s="7"/>
     </row>
@@ -6487,7 +6491,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C157" s="3">
         <v>2014</v>
@@ -6502,10 +6506,10 @@
         <v>5.6</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I157" s="7"/>
     </row>
@@ -6514,7 +6518,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C158" s="3">
         <v>2015</v>
@@ -6529,10 +6533,10 @@
         <v>5.3</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I158" s="7"/>
     </row>
@@ -6541,7 +6545,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C159" s="3">
         <v>2016</v>
@@ -6556,10 +6560,10 @@
         <v>5.2</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I159" s="7"/>
     </row>
@@ -6568,7 +6572,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C160" s="3">
         <v>2017</v>
@@ -6583,10 +6587,10 @@
         <v>6.6</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I160" s="7"/>
     </row>
@@ -6595,7 +6599,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C161" s="3">
         <v>2018</v>
@@ -6610,10 +6614,10 @@
         <v>1.9</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I161" s="7"/>
     </row>
@@ -6649,7 +6653,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C163" s="3">
         <v>2020</v>
@@ -6664,10 +6668,10 @@
         <v>6.5</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I163" s="7"/>
     </row>
@@ -6676,7 +6680,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C164" s="3">
         <v>2021</v>
@@ -6691,10 +6695,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I164" s="7"/>
     </row>
@@ -6703,7 +6707,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C165" s="3">
         <v>2022</v>
@@ -6718,10 +6722,10 @@
         <v>5.6</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I165" s="7"/>
     </row>
@@ -6730,7 +6734,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C166" s="3">
         <v>2023</v>
@@ -6745,10 +6749,10 @@
         <v>5.8</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I166" s="7"/>
     </row>
@@ -6757,7 +6761,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C167" s="3">
         <v>2014</v>
@@ -6772,10 +6776,10 @@
         <v>6.9</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I167" s="7"/>
     </row>
@@ -6784,7 +6788,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C168" s="3">
         <v>2015</v>
@@ -6799,10 +6803,10 @@
         <v>7.3</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I168" s="7"/>
     </row>
@@ -6811,7 +6815,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C169" s="3">
         <v>2016</v>
@@ -6826,10 +6830,10 @@
         <v>5.9</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -6838,7 +6842,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C170" s="3">
         <v>2017</v>
@@ -6853,10 +6857,10 @@
         <v>4.8</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I170" s="7"/>
     </row>
@@ -6865,7 +6869,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C171" s="3">
         <v>2018</v>
@@ -6880,10 +6884,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -6892,7 +6896,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C172" s="3">
         <v>2019</v>
@@ -6907,10 +6911,10 @@
         <v>7</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I172" s="7"/>
     </row>
@@ -6919,7 +6923,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C173" s="3">
         <v>2020</v>
@@ -6934,10 +6938,10 @@
         <v>4.7</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I173" s="7"/>
     </row>
@@ -6946,7 +6950,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C174" s="3">
         <v>2021</v>
@@ -6961,10 +6965,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I174" s="7"/>
     </row>
@@ -6973,7 +6977,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C175" s="3">
         <v>2023</v>
@@ -6988,10 +6992,10 @@
         <v>6.5</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I175" s="7"/>
     </row>
@@ -7000,7 +7004,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C176" s="3">
         <v>2024</v>
@@ -7015,10 +7019,10 @@
         <v>5.3</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I176" s="7"/>
     </row>
@@ -7027,7 +7031,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C177" s="3">
         <v>2014</v>
@@ -7042,10 +7046,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I177" s="7"/>
     </row>
@@ -7054,7 +7058,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C178" s="3">
         <v>2015</v>
@@ -7069,10 +7073,10 @@
         <v>7.4</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I178" s="7"/>
     </row>
@@ -7081,7 +7085,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C179" s="3">
         <v>2016</v>
@@ -7096,10 +7100,10 @@
         <v>7.3</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I179" s="7"/>
     </row>
@@ -7108,7 +7112,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C180" s="3">
         <v>2017</v>
@@ -7123,10 +7127,10 @@
         <v>7.2</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I180" s="7"/>
     </row>
@@ -7135,7 +7139,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C181" s="3">
         <v>2018</v>
@@ -7150,10 +7154,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I181" s="7"/>
     </row>
@@ -7162,7 +7166,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C182" s="3">
         <v>2019</v>
@@ -7177,10 +7181,10 @@
         <v>8.1</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I182" s="7"/>
     </row>
@@ -7189,7 +7193,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C183" s="3">
         <v>2020</v>
@@ -7204,10 +7208,10 @@
         <v>5.4</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I183" s="7"/>
     </row>
@@ -7216,7 +7220,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C184" s="3">
         <v>2021</v>
@@ -7231,10 +7235,10 @@
         <v>6.9</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I184" s="7"/>
     </row>
@@ -7243,7 +7247,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C185" s="3">
         <v>2022</v>
@@ -7258,10 +7262,10 @@
         <v>6.6</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I185" s="7"/>
     </row>
@@ -7270,7 +7274,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C186" s="3">
         <v>2014</v>
@@ -7285,10 +7289,10 @@
         <v>3.8</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I186" s="7"/>
     </row>
@@ -7297,7 +7301,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C187" s="3">
         <v>2015</v>
@@ -7312,10 +7316,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I187" s="7"/>
     </row>
@@ -7324,7 +7328,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C188" s="3">
         <v>2017</v>
@@ -7339,10 +7343,10 @@
         <v>6.6</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I188" s="7"/>
     </row>
@@ -7351,7 +7355,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C189" s="3">
         <v>2019</v>
@@ -7366,10 +7370,10 @@
         <v>3.8</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I189" s="7"/>
     </row>
@@ -7378,7 +7382,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C190" s="3">
         <v>2021</v>
@@ -7393,10 +7397,10 @@
         <v>4.3</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I190" s="7"/>
     </row>
@@ -7405,7 +7409,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C191" s="3">
         <v>2022</v>
@@ -7420,10 +7424,10 @@
         <v>6.7</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I191" s="7"/>
     </row>
@@ -7432,7 +7436,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C192" s="3">
         <v>2014</v>
@@ -7447,10 +7451,10 @@
         <v>6</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="I192" s="6"/>
     </row>
@@ -7459,7 +7463,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C193" s="3">
         <v>2015</v>
@@ -7474,10 +7478,10 @@
         <v>7</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I193" s="6"/>
     </row>
@@ -7486,7 +7490,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C194" s="3">
         <v>2016</v>
@@ -7501,10 +7505,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I194" s="6"/>
     </row>
@@ -7513,7 +7517,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C195" s="3">
         <v>2017</v>
@@ -7528,10 +7532,10 @@
         <v>6.1</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I195" s="7"/>
     </row>
@@ -7540,7 +7544,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C196" s="3">
         <v>2018</v>
@@ -7555,10 +7559,10 @@
         <v>7.5</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H196" s="13" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I196" s="7"/>
     </row>
@@ -7567,7 +7571,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C197" s="3">
         <v>2019</v>
@@ -7582,10 +7586,10 @@
         <v>4.3</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I197" s="7"/>
     </row>
@@ -7594,7 +7598,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C198" s="3">
         <v>2020</v>
@@ -7609,10 +7613,10 @@
         <v>5.4</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I198" s="6"/>
     </row>
@@ -7621,7 +7625,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C199" s="3">
         <v>2021</v>
@@ -7636,10 +7640,10 @@
         <v>4.2</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="I199" s="7"/>
     </row>
@@ -7648,7 +7652,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C200" s="3">
         <v>2022</v>
@@ -7663,10 +7667,10 @@
         <v>6.1</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="H200" s="13" t="s">
-        <v>614</v>
+        <v>608</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="I200" s="7"/>
     </row>
@@ -7675,7 +7679,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C201" s="3">
         <v>2023</v>
@@ -7690,10 +7694,10 @@
         <v>5.2</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I201" s="7"/>
     </row>
@@ -8521,6 +8525,6 @@
     <row r="1001" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/movies_dataset.xlsx
+++ b/movies_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/549b231134dbcf65/Desktop/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/549b231134dbcf65/Desktop/project/git_repo/Movie-Recommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF16AB7C-1183-478E-B6A6-5D3D05894BDF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDB2D71-8D1B-4EFF-A62E-59607342E9A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1886,10 +1886,10 @@
     <t>poster/varane_aavishyamund.jpg</t>
   </si>
   <si>
-    <t>poster/Brahmayugam.jpg</t>
-  </si>
-  <si>
     <t>poster/super_sharanya.jpeg</t>
+  </si>
+  <si>
+    <t>poster/brahmayugam.jpg</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2045,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2251,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="104" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3966,7 +3962,7 @@
         <v>8.5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>199</v>
@@ -5291,7 +5287,7 @@
         <v>6.4</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>347</v>

--- a/movies_dataset.xlsx
+++ b/movies_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/549b231134dbcf65/Desktop/project/git_repo/Movie-Recommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDB2D71-8D1B-4EFF-A62E-59607342E9A9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{191D1317-991F-4431-A9EF-1A83CF6CA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE5D050-D2C5-4E80-A8FB-CE5B8B986848}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,9 +580,6 @@
     <t>ARM (Ajayante Randam Moshanam)</t>
   </si>
   <si>
-    <t>poster/ARM.jpg</t>
-  </si>
-  <si>
     <t>Set in the Northern Kerala in 1900, 1950 and 1990, three generations of heroes Maniyan, Kunjikelu and Ajayan, try to protect the most important treasure of the Land.</t>
   </si>
   <si>
@@ -1890,6 +1887,9 @@
   </si>
   <si>
     <t>poster/brahmayugam.jpg</t>
+  </si>
+  <si>
+    <t>poster/arm.jpg</t>
   </si>
 </sst>
 </file>
@@ -2045,6 +2045,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="104" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="104" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3611,7 +3615,7 @@
         <v>6.9</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>161</v>
@@ -3800,10 +3804,10 @@
         <v>8</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3812,7 +3816,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" s="3">
         <v>2024</v>
@@ -3827,10 +3831,10 @@
         <v>7.8</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3839,7 +3843,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" s="3">
         <v>2024</v>
@@ -3854,10 +3858,10 @@
         <v>7.8</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -3866,7 +3870,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" s="3">
         <v>2019</v>
@@ -3881,10 +3885,10 @@
         <v>8.5</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -3893,7 +3897,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" s="3">
         <v>2015</v>
@@ -3908,10 +3912,10 @@
         <v>6.7</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I61" s="6"/>
     </row>
@@ -3920,7 +3924,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" s="3">
         <v>2007</v>
@@ -3935,10 +3939,10 @@
         <v>7.5</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="I62" s="6"/>
     </row>
@@ -3947,7 +3951,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="3">
         <v>2024</v>
@@ -3962,10 +3966,10 @@
         <v>8.5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I63" s="6"/>
     </row>
@@ -3974,7 +3978,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" s="3">
         <v>2024</v>
@@ -3989,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="I64" s="6"/>
     </row>
@@ -4001,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="3">
         <v>2021</v>
@@ -4016,10 +4020,10 @@
         <v>6.1</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="I65" s="6"/>
     </row>
@@ -4028,7 +4032,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="3">
         <v>2023</v>
@@ -4043,10 +4047,10 @@
         <v>8.1</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="I66" s="6"/>
     </row>
@@ -4055,7 +4059,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C67" s="3">
         <v>2015</v>
@@ -4070,10 +4074,10 @@
         <v>6.5</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="I67" s="6"/>
     </row>
@@ -4082,7 +4086,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="3">
         <v>2016</v>
@@ -4097,10 +4101,10 @@
         <v>7.3</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="9"/>
@@ -4110,7 +4114,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" s="3">
         <v>2018</v>
@@ -4125,10 +4129,10 @@
         <v>7.3</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="I69" s="7"/>
     </row>
@@ -4137,7 +4141,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" s="3">
         <v>2019</v>
@@ -4152,10 +4156,10 @@
         <v>7.1</v>
       </c>
       <c r="G70" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="I70" s="7"/>
     </row>
@@ -4164,7 +4168,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="3">
         <v>2020</v>
@@ -4179,10 +4183,10 @@
         <v>7.1</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="I71" s="7"/>
     </row>
@@ -4191,7 +4195,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" s="3">
         <v>2022</v>
@@ -4206,10 +4210,10 @@
         <v>6.5</v>
       </c>
       <c r="G72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="I72" s="7"/>
     </row>
@@ -4218,7 +4222,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="3">
         <v>2021</v>
@@ -4233,10 +4237,10 @@
         <v>6.3</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="I73" s="7"/>
     </row>
@@ -4245,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="3">
         <v>2024</v>
@@ -4260,10 +4264,10 @@
         <v>6.8</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="I74" s="7"/>
     </row>
@@ -4272,7 +4276,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C75" s="3">
         <v>2016</v>
@@ -4287,10 +4291,10 @@
         <v>6.3</v>
       </c>
       <c r="G75" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="I75" s="7"/>
     </row>
@@ -4299,7 +4303,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="3">
         <v>2014</v>
@@ -4314,10 +4318,10 @@
         <v>8.1</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="I76" s="7"/>
     </row>
@@ -4326,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77" s="3">
         <v>2015</v>
@@ -4341,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="I77" s="7"/>
     </row>
@@ -4353,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C78" s="3">
         <v>2016</v>
@@ -4368,10 +4372,10 @@
         <v>8</v>
       </c>
       <c r="G78" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="I78" s="7"/>
     </row>
@@ -4380,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C79" s="3">
         <v>2017</v>
@@ -4395,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="I79" s="7"/>
     </row>
@@ -4407,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" s="3">
         <v>2018</v>
@@ -4422,10 +4426,10 @@
         <v>6.9</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="I80" s="7"/>
     </row>
@@ -4434,7 +4438,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3">
         <v>2019</v>
@@ -4449,10 +4453,10 @@
         <v>7.9</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="I81" s="7"/>
     </row>
@@ -4461,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C82" s="3">
         <v>2020</v>
@@ -4476,10 +4480,10 @@
         <v>7.4</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I82" s="7"/>
     </row>
@@ -4488,7 +4492,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="3">
         <v>2021</v>
@@ -4503,10 +4507,10 @@
         <v>7.1</v>
       </c>
       <c r="G83" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="I83" s="7"/>
     </row>
@@ -4515,7 +4519,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" s="3">
         <v>2021</v>
@@ -4530,10 +4534,10 @@
         <v>5.8</v>
       </c>
       <c r="G84" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="I84" s="7"/>
     </row>
@@ -4542,7 +4546,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C85" s="3">
         <v>2023</v>
@@ -4557,10 +4561,10 @@
         <v>6.8</v>
       </c>
       <c r="G85" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="I85" s="7"/>
     </row>
@@ -4569,7 +4573,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C86" s="3">
         <v>2024</v>
@@ -4584,10 +4588,10 @@
         <v>6.9</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="I86" s="7"/>
     </row>
@@ -4596,7 +4600,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87" s="3">
         <v>2014</v>
@@ -4611,10 +4615,10 @@
         <v>7.9</v>
       </c>
       <c r="G87" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="I87" s="7"/>
     </row>
@@ -4623,7 +4627,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C88" s="3">
         <v>2015</v>
@@ -4638,10 +4642,10 @@
         <v>8.1</v>
       </c>
       <c r="G88" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="I88" s="7"/>
     </row>
@@ -4650,7 +4654,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C89" s="3">
         <v>2016</v>
@@ -4665,10 +4669,10 @@
         <v>7.8</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="I89" s="7"/>
     </row>
@@ -4677,7 +4681,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C90" s="3">
         <v>2018</v>
@@ -4692,10 +4696,10 @@
         <v>7.7</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="I90" s="7"/>
     </row>
@@ -4704,7 +4708,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C91" s="3">
         <v>2019</v>
@@ -4719,10 +4723,10 @@
         <v>8.4</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="I91" s="7"/>
     </row>
@@ -4731,7 +4735,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C92" s="3">
         <v>2021</v>
@@ -4746,10 +4750,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G92" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="I92" s="7"/>
     </row>
@@ -4758,7 +4762,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C93" s="3">
         <v>2022</v>
@@ -4773,10 +4777,10 @@
         <v>7.8</v>
       </c>
       <c r="G93" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="I93" s="7"/>
     </row>
@@ -4785,7 +4789,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94" s="3">
         <v>2023</v>
@@ -4800,10 +4804,10 @@
         <v>7.9</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="I94" s="7"/>
     </row>
@@ -4812,7 +4816,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C95" s="3">
         <v>2014</v>
@@ -4827,10 +4831,10 @@
         <v>7.7</v>
       </c>
       <c r="G95" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="I95" s="7"/>
     </row>
@@ -4839,7 +4843,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="3">
         <v>2015</v>
@@ -4854,10 +4858,10 @@
         <v>7.5</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="I96" s="7"/>
     </row>
@@ -4866,7 +4870,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C97" s="3">
         <v>2016</v>
@@ -4881,10 +4885,10 @@
         <v>7.4</v>
       </c>
       <c r="G97" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="I97" s="7"/>
     </row>
@@ -4893,7 +4897,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C98" s="3">
         <v>2017</v>
@@ -4908,10 +4912,10 @@
         <v>7.5</v>
       </c>
       <c r="G98" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="I98" s="7"/>
     </row>
@@ -4920,7 +4924,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C99" s="3">
         <v>2018</v>
@@ -4935,10 +4939,10 @@
         <v>7.6</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="I99" s="7"/>
     </row>
@@ -4947,7 +4951,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C100" s="3">
         <v>2020</v>
@@ -4962,10 +4966,10 @@
         <v>6.9</v>
       </c>
       <c r="G100" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="I100" s="7"/>
     </row>
@@ -4974,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C101" s="3">
         <v>2021</v>
@@ -4989,10 +4993,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G101" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="I101" s="7"/>
     </row>
@@ -5001,7 +5005,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C102" s="3">
         <v>2022</v>
@@ -5016,10 +5020,10 @@
         <v>5.8</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="I102" s="7"/>
     </row>
@@ -5028,7 +5032,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C103" s="3">
         <v>2024</v>
@@ -5043,10 +5047,10 @@
         <v>6.3</v>
       </c>
       <c r="G103" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="I103" s="7"/>
     </row>
@@ -5055,25 +5059,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C104" s="3">
         <v>2014</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F104" s="3">
         <v>7.7</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="I104" s="7"/>
     </row>
@@ -5082,25 +5086,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C105" s="3">
         <v>2015</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F105" s="3">
         <v>6.6</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="I105" s="7"/>
     </row>
@@ -5109,13 +5113,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C106" s="3">
         <v>2016</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>49</v>
@@ -5124,10 +5128,10 @@
         <v>6.7</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="I106" s="7"/>
       <c r="K106" s="3"/>
@@ -5137,25 +5141,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C107" s="3">
         <v>2017</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F107" s="3">
         <v>7.1</v>
       </c>
       <c r="G107" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I107" s="7"/>
     </row>
@@ -5164,25 +5168,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C108" s="3">
         <v>2018</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F108" s="3">
         <v>6.8</v>
       </c>
       <c r="G108" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="I108" s="7"/>
     </row>
@@ -5191,25 +5195,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C109" s="3">
         <v>2019</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F109" s="3">
         <v>6.7</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="I109" s="7"/>
     </row>
@@ -5218,25 +5222,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C110" s="3">
         <v>2020</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F110" s="3">
         <v>7.5</v>
       </c>
       <c r="G110" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="I110" s="7"/>
     </row>
@@ -5245,25 +5249,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C111" s="3">
         <v>2021</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F111" s="3">
         <v>7.6</v>
       </c>
       <c r="G111" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="I111" s="7"/>
     </row>
@@ -5272,25 +5276,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C112" s="3">
         <v>2022</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F112" s="3">
         <v>6.4</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I112" s="7"/>
     </row>
@@ -5299,25 +5303,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" s="3">
         <v>2023</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F113" s="3">
         <v>6.8</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="I113" s="7"/>
     </row>
@@ -5326,25 +5330,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C114" s="3">
         <v>2024</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F114" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="I114" s="7"/>
     </row>
@@ -5353,25 +5357,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" s="3">
         <v>2014</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F115" s="3">
         <v>3.4</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="I115" s="7"/>
     </row>
@@ -5380,25 +5384,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C116" s="3">
         <v>2015</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F116" s="3">
         <v>3.3</v>
       </c>
       <c r="G116" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="I116" s="7"/>
     </row>
@@ -5407,13 +5411,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C117" s="3">
         <v>2016</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>14</v>
@@ -5422,10 +5426,10 @@
         <v>8</v>
       </c>
       <c r="G117" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="I117" s="7"/>
     </row>
@@ -5434,13 +5438,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C118" s="3">
         <v>2017</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>14</v>
@@ -5449,10 +5453,10 @@
         <v>7.9</v>
       </c>
       <c r="G118" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="I118" s="7"/>
     </row>
@@ -5461,13 +5465,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C119" s="3">
         <v>2018</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>14</v>
@@ -5476,10 +5480,10 @@
         <v>6.7</v>
       </c>
       <c r="G119" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="I119" s="7"/>
     </row>
@@ -5488,25 +5492,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C120" s="3">
         <v>2019</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F120" s="3">
         <v>5</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I120" s="7"/>
     </row>
@@ -5515,25 +5519,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C121" s="3">
         <v>2020</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F121" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G121" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="I121" s="7"/>
     </row>
@@ -5542,25 +5546,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C122" s="3">
         <v>2021</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F122" s="3">
         <v>5.2</v>
       </c>
       <c r="G122" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="I122" s="7"/>
     </row>
@@ -5569,13 +5573,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C123" s="3">
         <v>2022</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>14</v>
@@ -5584,10 +5588,10 @@
         <v>7.3</v>
       </c>
       <c r="G123" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="I123" s="7"/>
     </row>
@@ -5596,25 +5600,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C124" s="3">
         <v>2023</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F124" s="3">
         <v>6.3</v>
       </c>
       <c r="G124" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="I124" s="7"/>
     </row>
@@ -5623,13 +5627,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C125" s="3">
         <v>2014</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>10</v>
@@ -5638,10 +5642,10 @@
         <v>6.9</v>
       </c>
       <c r="G125" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="I125" s="7"/>
     </row>
@@ -5650,13 +5654,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C126" s="3">
         <v>2015</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>10</v>
@@ -5665,10 +5669,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="I126" s="7"/>
     </row>
@@ -5677,25 +5681,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C127" s="3">
         <v>2016</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F127" s="3">
         <v>6.5</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="I127" s="7"/>
     </row>
@@ -5704,25 +5708,25 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C128" s="3">
         <v>2017</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F128" s="3">
         <v>8.1</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H128" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -5731,25 +5735,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C129" s="3">
         <v>2018</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F129" s="3">
         <v>8</v>
       </c>
       <c r="G129" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H129" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="I129" s="7"/>
     </row>
@@ -5758,25 +5762,25 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C130" s="3">
         <v>2019</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F130" s="3">
         <v>7.2</v>
       </c>
       <c r="G130" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H130" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="I130" s="7"/>
     </row>
@@ -5785,25 +5789,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" s="3">
         <v>2020</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F131" s="3">
         <v>7.3</v>
       </c>
       <c r="G131" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="I131" s="7"/>
     </row>
@@ -5812,25 +5816,25 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C132" s="3">
         <v>2021</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F132" s="3">
         <v>7.5</v>
       </c>
       <c r="G132" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="I132" s="7"/>
     </row>
@@ -5839,25 +5843,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C133" s="3">
         <v>2022</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F133" s="3">
         <v>6.9</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="I133" s="7"/>
     </row>
@@ -5866,25 +5870,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C134" s="3">
         <v>2023</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F134" s="3">
         <v>7.3</v>
       </c>
       <c r="G134" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="I134" s="7"/>
     </row>
@@ -5893,25 +5897,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C135" s="3">
         <v>2024</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F135" s="3">
         <v>6.5</v>
       </c>
       <c r="G135" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H135" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="I135" s="7"/>
     </row>
@@ -5920,25 +5924,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C136" s="3">
         <v>2014</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F136" s="3">
         <v>5.4</v>
       </c>
       <c r="G136" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H136" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="I136" s="7"/>
     </row>
@@ -5947,25 +5951,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C137" s="3">
         <v>2015</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F137" s="3">
         <v>6.6</v>
       </c>
       <c r="G137" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="I137" s="7"/>
     </row>
@@ -5974,25 +5978,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C138" s="3">
         <v>2016</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F138" s="3">
         <v>6.4</v>
       </c>
       <c r="G138" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="I138" s="7"/>
     </row>
@@ -6001,25 +6005,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C139" s="3">
         <v>2017</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F139" s="3">
         <v>6.6</v>
       </c>
       <c r="G139" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H139" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="I139" s="7"/>
     </row>
@@ -6028,25 +6032,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C140" s="3">
         <v>2018</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F140" s="3">
         <v>4.8</v>
       </c>
       <c r="G140" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H140" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="I140" s="7"/>
     </row>
@@ -6061,19 +6065,19 @@
         <v>2019</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F141" s="3">
         <v>6.7</v>
       </c>
       <c r="G141" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="I141" s="7"/>
     </row>
@@ -6082,25 +6086,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C142" s="3">
         <v>2021</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F142" s="3">
         <v>5.7</v>
       </c>
       <c r="G142" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H142" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="I142" s="7"/>
     </row>
@@ -6109,25 +6113,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C143" s="3">
         <v>2022</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F143" s="3">
         <v>6.4</v>
       </c>
       <c r="G143" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="I143" s="7"/>
     </row>
@@ -6136,25 +6140,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C144" s="3">
         <v>2023</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F144" s="3">
         <v>6</v>
       </c>
       <c r="G144" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H144" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="I144" s="7"/>
     </row>
@@ -6163,13 +6167,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C145" s="3">
         <v>2024</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>74</v>
@@ -6178,10 +6182,10 @@
         <v>5.7</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="I145" s="7"/>
     </row>
@@ -6190,13 +6194,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C146" s="3">
         <v>2014</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>36</v>
@@ -6205,10 +6209,10 @@
         <v>3.1</v>
       </c>
       <c r="G146" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H146" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="I146" s="7"/>
     </row>
@@ -6217,25 +6221,25 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C147" s="3">
         <v>2015</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F147" s="3">
         <v>6.9</v>
       </c>
       <c r="G147" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="I147" s="7"/>
     </row>
@@ -6244,13 +6248,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C148" s="3">
         <v>2016</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>36</v>
@@ -6259,10 +6263,10 @@
         <v>5.5</v>
       </c>
       <c r="G148" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="I148" s="7"/>
     </row>
@@ -6271,13 +6275,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C149" s="3">
         <v>2017</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>36</v>
@@ -6286,10 +6290,10 @@
         <v>7.2</v>
       </c>
       <c r="G149" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H149" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="I149" s="7"/>
     </row>
@@ -6298,25 +6302,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C150" s="3">
         <v>2018</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F150" s="3">
         <v>5.7</v>
       </c>
       <c r="G150" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H150" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="I150" s="7"/>
     </row>
@@ -6325,25 +6329,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C151" s="3">
         <v>2019</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F151" s="3">
         <v>6.8</v>
       </c>
       <c r="G151" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H151" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="I151" s="7"/>
     </row>
@@ -6352,25 +6356,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C152" s="3">
         <v>2020</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F152" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="G152" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H152" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="I152" s="7"/>
     </row>
@@ -6379,13 +6383,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C153" s="3">
         <v>2021</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>36</v>
@@ -6394,10 +6398,10 @@
         <v>6.5</v>
       </c>
       <c r="G153" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H153" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="I153" s="7"/>
     </row>
@@ -6406,25 +6410,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C154" s="3">
         <v>2022</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F154" s="3">
         <v>5.7</v>
       </c>
       <c r="G154" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H154" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="I154" s="7"/>
     </row>
@@ -6433,13 +6437,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C155" s="3">
         <v>2023</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>36</v>
@@ -6448,10 +6452,10 @@
         <v>7.3</v>
       </c>
       <c r="G155" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H155" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="I155" s="7"/>
     </row>
@@ -6460,13 +6464,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C156" s="3">
         <v>2024</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>36</v>
@@ -6475,10 +6479,10 @@
         <v>5.6</v>
       </c>
       <c r="G156" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="I156" s="7"/>
     </row>
@@ -6487,7 +6491,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C157" s="3">
         <v>2014</v>
@@ -6502,10 +6506,10 @@
         <v>5.6</v>
       </c>
       <c r="G157" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H157" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="I157" s="7"/>
     </row>
@@ -6514,7 +6518,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C158" s="3">
         <v>2015</v>
@@ -6529,10 +6533,10 @@
         <v>5.3</v>
       </c>
       <c r="G158" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H158" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="I158" s="7"/>
     </row>
@@ -6541,7 +6545,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C159" s="3">
         <v>2016</v>
@@ -6556,10 +6560,10 @@
         <v>5.2</v>
       </c>
       <c r="G159" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H159" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="I159" s="7"/>
     </row>
@@ -6568,7 +6572,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C160" s="3">
         <v>2017</v>
@@ -6583,10 +6587,10 @@
         <v>6.6</v>
       </c>
       <c r="G160" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H160" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="I160" s="7"/>
     </row>
@@ -6595,7 +6599,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C161" s="3">
         <v>2018</v>
@@ -6610,10 +6614,10 @@
         <v>1.9</v>
       </c>
       <c r="G161" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H161" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>496</v>
       </c>
       <c r="I161" s="7"/>
     </row>
@@ -6649,7 +6653,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C163" s="3">
         <v>2020</v>
@@ -6664,10 +6668,10 @@
         <v>6.5</v>
       </c>
       <c r="G163" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H163" s="13" t="s">
         <v>498</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>499</v>
       </c>
       <c r="I163" s="7"/>
     </row>
@@ -6676,7 +6680,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C164" s="3">
         <v>2021</v>
@@ -6691,10 +6695,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G164" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H164" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="I164" s="7"/>
     </row>
@@ -6703,7 +6707,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C165" s="3">
         <v>2022</v>
@@ -6718,10 +6722,10 @@
         <v>5.6</v>
       </c>
       <c r="G165" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H165" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="H165" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="I165" s="7"/>
     </row>
@@ -6730,7 +6734,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C166" s="3">
         <v>2023</v>
@@ -6745,10 +6749,10 @@
         <v>5.8</v>
       </c>
       <c r="G166" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H166" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="H166" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="I166" s="7"/>
     </row>
@@ -6757,7 +6761,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C167" s="3">
         <v>2014</v>
@@ -6772,10 +6776,10 @@
         <v>6.9</v>
       </c>
       <c r="G167" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="H167" s="13" t="s">
         <v>510</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>511</v>
       </c>
       <c r="I167" s="7"/>
     </row>
@@ -6784,7 +6788,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C168" s="3">
         <v>2015</v>
@@ -6799,10 +6803,10 @@
         <v>7.3</v>
       </c>
       <c r="G168" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H168" s="13" t="s">
         <v>513</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>514</v>
       </c>
       <c r="I168" s="7"/>
     </row>
@@ -6811,7 +6815,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C169" s="3">
         <v>2016</v>
@@ -6826,10 +6830,10 @@
         <v>5.9</v>
       </c>
       <c r="G169" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="H169" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -6838,7 +6842,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C170" s="3">
         <v>2017</v>
@@ -6853,10 +6857,10 @@
         <v>4.8</v>
       </c>
       <c r="G170" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H170" s="13" t="s">
         <v>519</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>520</v>
       </c>
       <c r="I170" s="7"/>
     </row>
@@ -6865,7 +6869,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C171" s="3">
         <v>2018</v>
@@ -6880,10 +6884,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G171" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H171" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="H171" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -6892,7 +6896,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C172" s="3">
         <v>2019</v>
@@ -6907,10 +6911,10 @@
         <v>7</v>
       </c>
       <c r="G172" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H172" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="H172" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="I172" s="7"/>
     </row>
@@ -6919,7 +6923,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C173" s="3">
         <v>2020</v>
@@ -6934,10 +6938,10 @@
         <v>4.7</v>
       </c>
       <c r="G173" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="H173" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="H173" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="I173" s="7"/>
     </row>
@@ -6946,7 +6950,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C174" s="3">
         <v>2021</v>
@@ -6961,10 +6965,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G174" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H174" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="I174" s="7"/>
     </row>
@@ -6973,7 +6977,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C175" s="3">
         <v>2023</v>
@@ -6988,10 +6992,10 @@
         <v>6.5</v>
       </c>
       <c r="G175" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H175" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>535</v>
       </c>
       <c r="I175" s="7"/>
     </row>
@@ -7000,7 +7004,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C176" s="3">
         <v>2024</v>
@@ -7015,10 +7019,10 @@
         <v>5.3</v>
       </c>
       <c r="G176" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="H176" s="13" t="s">
         <v>537</v>
-      </c>
-      <c r="H176" s="13" t="s">
-        <v>538</v>
       </c>
       <c r="I176" s="7"/>
     </row>
@@ -7027,7 +7031,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C177" s="3">
         <v>2014</v>
@@ -7042,10 +7046,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G177" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="H177" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="H177" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="I177" s="7"/>
     </row>
@@ -7054,7 +7058,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C178" s="3">
         <v>2015</v>
@@ -7069,10 +7073,10 @@
         <v>7.4</v>
       </c>
       <c r="G178" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H178" s="13" t="s">
         <v>543</v>
-      </c>
-      <c r="H178" s="13" t="s">
-        <v>544</v>
       </c>
       <c r="I178" s="7"/>
     </row>
@@ -7081,7 +7085,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C179" s="3">
         <v>2016</v>
@@ -7096,10 +7100,10 @@
         <v>7.3</v>
       </c>
       <c r="G179" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H179" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="H179" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="I179" s="7"/>
     </row>
@@ -7108,7 +7112,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C180" s="3">
         <v>2017</v>
@@ -7123,10 +7127,10 @@
         <v>7.2</v>
       </c>
       <c r="G180" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="H180" s="13" t="s">
         <v>549</v>
-      </c>
-      <c r="H180" s="13" t="s">
-        <v>550</v>
       </c>
       <c r="I180" s="7"/>
     </row>
@@ -7135,7 +7139,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C181" s="3">
         <v>2018</v>
@@ -7150,10 +7154,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G181" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="H181" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="H181" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="I181" s="7"/>
     </row>
@@ -7162,7 +7166,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C182" s="3">
         <v>2019</v>
@@ -7177,10 +7181,10 @@
         <v>8.1</v>
       </c>
       <c r="G182" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H182" s="13" t="s">
         <v>555</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>556</v>
       </c>
       <c r="I182" s="7"/>
     </row>
@@ -7189,7 +7193,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C183" s="3">
         <v>2020</v>
@@ -7204,10 +7208,10 @@
         <v>5.4</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I183" s="7"/>
     </row>
@@ -7216,7 +7220,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C184" s="3">
         <v>2021</v>
@@ -7231,10 +7235,10 @@
         <v>6.9</v>
       </c>
       <c r="G184" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H184" s="13" t="s">
         <v>560</v>
-      </c>
-      <c r="H184" s="13" t="s">
-        <v>561</v>
       </c>
       <c r="I184" s="7"/>
     </row>
@@ -7243,7 +7247,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C185" s="3">
         <v>2022</v>
@@ -7258,10 +7262,10 @@
         <v>6.6</v>
       </c>
       <c r="G185" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H185" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="H185" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="I185" s="7"/>
     </row>
@@ -7270,7 +7274,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C186" s="3">
         <v>2014</v>
@@ -7285,10 +7289,10 @@
         <v>3.8</v>
       </c>
       <c r="G186" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H186" s="13" t="s">
         <v>566</v>
-      </c>
-      <c r="H186" s="13" t="s">
-        <v>567</v>
       </c>
       <c r="I186" s="7"/>
     </row>
@@ -7297,7 +7301,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C187" s="3">
         <v>2015</v>
@@ -7312,10 +7316,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G187" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="H187" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="H187" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="I187" s="7"/>
     </row>
@@ -7324,7 +7328,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C188" s="3">
         <v>2017</v>
@@ -7339,10 +7343,10 @@
         <v>6.6</v>
       </c>
       <c r="G188" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H188" s="13" t="s">
         <v>572</v>
-      </c>
-      <c r="H188" s="13" t="s">
-        <v>573</v>
       </c>
       <c r="I188" s="7"/>
     </row>
@@ -7351,7 +7355,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C189" s="3">
         <v>2019</v>
@@ -7366,10 +7370,10 @@
         <v>3.8</v>
       </c>
       <c r="G189" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H189" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="H189" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="I189" s="7"/>
     </row>
@@ -7378,7 +7382,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C190" s="3">
         <v>2021</v>
@@ -7393,10 +7397,10 @@
         <v>4.3</v>
       </c>
       <c r="G190" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H190" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>579</v>
       </c>
       <c r="I190" s="7"/>
     </row>
@@ -7405,7 +7409,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C191" s="3">
         <v>2022</v>
@@ -7420,10 +7424,10 @@
         <v>6.7</v>
       </c>
       <c r="G191" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H191" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="H191" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="I191" s="7"/>
     </row>
@@ -7432,7 +7436,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C192" s="3">
         <v>2014</v>
@@ -7447,10 +7451,10 @@
         <v>6</v>
       </c>
       <c r="G192" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H192" s="13" t="s">
         <v>584</v>
-      </c>
-      <c r="H192" s="13" t="s">
-        <v>585</v>
       </c>
       <c r="I192" s="6"/>
     </row>
@@ -7459,7 +7463,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C193" s="3">
         <v>2015</v>
@@ -7474,10 +7478,10 @@
         <v>7</v>
       </c>
       <c r="G193" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H193" s="13" t="s">
         <v>587</v>
-      </c>
-      <c r="H193" s="13" t="s">
-        <v>588</v>
       </c>
       <c r="I193" s="6"/>
     </row>
@@ -7486,7 +7490,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C194" s="3">
         <v>2016</v>
@@ -7501,10 +7505,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G194" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H194" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="I194" s="6"/>
     </row>
@@ -7513,7 +7517,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C195" s="3">
         <v>2017</v>
@@ -7528,10 +7532,10 @@
         <v>6.1</v>
       </c>
       <c r="G195" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H195" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="H195" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="I195" s="7"/>
     </row>
@@ -7540,7 +7544,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C196" s="3">
         <v>2018</v>
@@ -7555,10 +7559,10 @@
         <v>7.5</v>
       </c>
       <c r="G196" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H196" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="H196" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="I196" s="7"/>
     </row>
@@ -7567,7 +7571,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C197" s="3">
         <v>2019</v>
@@ -7582,10 +7586,10 @@
         <v>4.3</v>
       </c>
       <c r="G197" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H197" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="H197" s="13" t="s">
-        <v>600</v>
       </c>
       <c r="I197" s="7"/>
     </row>
@@ -7594,7 +7598,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C198" s="3">
         <v>2020</v>
@@ -7609,10 +7613,10 @@
         <v>5.4</v>
       </c>
       <c r="G198" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H198" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="H198" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="I198" s="6"/>
     </row>
@@ -7621,7 +7625,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C199" s="3">
         <v>2021</v>
@@ -7636,10 +7640,10 @@
         <v>4.2</v>
       </c>
       <c r="G199" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H199" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="H199" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="I199" s="7"/>
     </row>
@@ -7648,7 +7652,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C200" s="3">
         <v>2022</v>
@@ -7663,10 +7667,10 @@
         <v>6.1</v>
       </c>
       <c r="G200" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H200" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="H200" s="11" t="s">
-        <v>609</v>
       </c>
       <c r="I200" s="7"/>
     </row>
@@ -7675,7 +7679,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C201" s="3">
         <v>2023</v>
@@ -7690,10 +7694,10 @@
         <v>5.2</v>
       </c>
       <c r="G201" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="H201" s="13" t="s">
         <v>611</v>
-      </c>
-      <c r="H201" s="13" t="s">
-        <v>612</v>
       </c>
       <c r="I201" s="7"/>
     </row>
